--- a/data/trans_bre/P59A-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.07342910541384</v>
+        <v>-14.92358688210473</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.701744739708339</v>
+        <v>-8.637214811555797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.16678747131301</v>
+        <v>-11.66750180126115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.644024988076918</v>
+        <v>-8.398076628995653</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6877657921815954</v>
+        <v>-0.688912049787171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3940629168887811</v>
+        <v>-0.3952712909718999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5057111833880384</v>
+        <v>-0.4809748529842643</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4742236046292733</v>
+        <v>-0.4475888800943172</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.920917921862731</v>
+        <v>-3.979183446922576</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.071213785558834</v>
+        <v>1.531939109127225</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.552742439092189</v>
+        <v>-1.950265398774104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.608116566877812</v>
+        <v>3.661202558972878</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.268458812723968</v>
+        <v>-0.2717007518200304</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07815606296430874</v>
+        <v>0.0937208581900987</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1374345052345569</v>
+        <v>-0.0954032363135902</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3405936822991623</v>
+        <v>0.3689910903703557</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.430952162930532</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.047708996705454</v>
+        <v>-6.047708996705456</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2590900244128507</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.57474600464081</v>
+        <v>-7.939242563620199</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.007158152889994</v>
+        <v>-4.949572339709807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.326147762186914</v>
+        <v>-3.46062399099567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-11.08065705693255</v>
+        <v>-11.62907884127689</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5128204984295146</v>
+        <v>-0.5096561056229114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2825584001344322</v>
+        <v>-0.2863307212536777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2612380321895615</v>
+        <v>-0.2149905896965995</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5620693211604005</v>
+        <v>-0.5593784585439123</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.263343533525948</v>
+        <v>1.199790984521079</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.422473365561268</v>
+        <v>5.574558853304737</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.815783558548889</v>
+        <v>6.482130368536472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.118495136719281</v>
+        <v>-1.352712708842873</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1410450507490273</v>
+        <v>0.131748100883621</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3962096053187866</v>
+        <v>0.4225356559987075</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5077424026881067</v>
+        <v>0.5946411995474085</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.07982702760693534</v>
+        <v>-0.09455980997885259</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.543816099629937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.187490619827772</v>
+        <v>1.187490619827763</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.07908428972000647</v>
@@ -849,7 +849,7 @@
         <v>-0.2302110101632761</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.08738195043062906</v>
+        <v>0.08738195043062844</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.605174432828884</v>
+        <v>-5.719402574700649</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.516624668017438</v>
+        <v>-4.461721822828997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.415778306665839</v>
+        <v>-8.894343272596016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.484329541657791</v>
+        <v>-3.78377245866667</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.371800719302969</v>
+        <v>-0.3710157614458857</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3112315751835671</v>
+        <v>-0.3106747312056412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5120303158980134</v>
+        <v>-0.499511746244087</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2153748195101628</v>
+        <v>-0.2296942333083738</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.771778301633737</v>
+        <v>4.440494113581709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.047377579782116</v>
+        <v>6.634009752991746</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.682154363396983</v>
+        <v>2.127144020158696</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.953495256362586</v>
+        <v>5.611976096701267</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3512710500172075</v>
+        <v>0.405526758073233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6629502890512978</v>
+        <v>0.762643542518411</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1327606251762361</v>
+        <v>0.1863059909197027</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5713413017122505</v>
+        <v>0.5137167277935724</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-3.680636321143721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.035116425595515</v>
+        <v>-2.035116425595518</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.257392785173306</v>
@@ -949,7 +949,7 @@
         <v>-0.1953600987154026</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.09644735052040777</v>
+        <v>-0.0964473505204079</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.853641306961387</v>
+        <v>-3.764622094670015</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-10.12672410095048</v>
+        <v>-9.832747006014397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-10.63831263995523</v>
+        <v>-10.65252169369526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.694516895916585</v>
+        <v>-9.374053082374591</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3962975249838531</v>
+        <v>-0.3255491803773032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5866240701229564</v>
+        <v>-0.570708282789035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4686820021475059</v>
+        <v>-0.4708614581020976</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3481978571891499</v>
+        <v>-0.3545220591334571</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.08664765090804</v>
+        <v>10.52362556669732</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.030859573606682</v>
+        <v>3.267639367417884</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.0294713939248</v>
+        <v>3.773751844713956</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.929614883074384</v>
+        <v>3.789094924719721</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.589344889553824</v>
+        <v>1.605462462161542</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4094475016471533</v>
+        <v>0.340230100856255</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2461157236874234</v>
+        <v>0.2541422439958177</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.238714378926501</v>
+        <v>0.2121742862995082</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-3.459143738587553</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.667645545527619</v>
+        <v>-2.667645545527622</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2428173405514984</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1971038028130871</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1619249785607056</v>
+        <v>-0.1619249785607058</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.912446239449666</v>
+        <v>-5.874396609937933</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.124649584315933</v>
+        <v>-4.194757977771324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.207720717447685</v>
+        <v>-6.058789906180348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.503072611212556</v>
+        <v>-5.373336391941561</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3845063938192836</v>
+        <v>-0.3914491348500838</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2481171636774542</v>
+        <v>-0.2477491320222945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3229791409882446</v>
+        <v>-0.3211134268685122</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2998721704659958</v>
+        <v>-0.2919881483703714</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.6428731489141077</v>
+        <v>-0.9160587339064974</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.544597598034642</v>
+        <v>1.677195097387777</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6238314009855664</v>
+        <v>-0.8730408461507275</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08259997461438363</v>
+        <v>-0.05720571782510866</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.05129329179934888</v>
+        <v>-0.07327990103684387</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1112064128353456</v>
+        <v>0.1274500796138375</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.03742608746097722</v>
+        <v>-0.05242798289693369</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.005890721950964205</v>
+        <v>-0.00311825894839205</v>
       </c>
     </row>
     <row r="19">
